--- a/ch1/Recipe4/OUTPUT/ReportingTemplate.xlsx
+++ b/ch1/Recipe4/OUTPUT/ReportingTemplate.xlsx
@@ -1432,7 +1432,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-09-28 13:41:57</t>
+          <t>2023-02-07 13:53:09</t>
         </is>
       </c>
     </row>
